--- a/biology/Botanique/Pilosella_cymosa/Pilosella_cymosa.xlsx
+++ b/biology/Botanique/Pilosella_cymosa/Pilosella_cymosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pilosella cymosa, de nom commun piloselle en cyme[2] ou épervière en cyme[2], est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Pilosella.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pilosella cymosa, de nom commun piloselle en cyme ou épervière en cyme, est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Pilosella.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épervière est une plante herbacée verte et vivace hivernale qui atteint généralement des hauteurs de 30 à 80, rarement jusqu'à 100 centimètres. Il n'y a pas de stolon. La tige est lapidaire et couverte de trichomes jusqu'à 2 mm de long.
 Les feuilles sont presque toutes réunies en rosette basale ; il y a quelques feuilles alternes réparties sur la tige. Les feuilles basales simples sont obovales à lancéolées, généralement richement duveteuses des deux côtés avec des poils étoilés courts (0,5 mm) et des poils simples, longs (5 mm), hérissés, clairs et squameux des deux côtés. Il y a généralement une à quatre, rarement jusqu'à huit, feuilles caulinaires simples.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Pilosella cymosa s'étend du Massif central à l'Europe centrale et au nord-est jusqu'à l'Oural. Il n'y a que quelques sous-zones insulaires à l'est de l'Oural. En Europe du Nord, elle s'étend à peine au-delà du cercle polaire arctique (elle est absente en Islande). La frontière sud de la région s'étend de la Sardaigne en passant par l'Italie et le nord de la Grèce jusqu'au nord-ouest de la Turquie. Dans le reste de la Turquie, seules des découvertes individuelles ont été enregistrées jusqu'à présent. Les sous-espèces ont une distribution légèrement différente.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épervière a besoin de sols riches en calcaire, modérément secs, riches en humus, caillouteux et limoneux, mais elle est aussi présente sur le lœss. Elle colonise les pelouses semi-arides, les champs et les buissons secs dans les zones au climat favorable.
 </t>
@@ -608,9 +626,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est une plante hôte de la chenille de Crombrugghia tristis[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est une plante hôte de la chenille de Crombrugghia tristis.
 </t>
         </is>
       </c>
